--- a/src/test/resources/testAgents.xlsx
+++ b/src/test/resources/testAgents.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,8 +134,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -416,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,12 +564,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{49C15E1D-E092-43F7-9DC9-A7DFCC82CBAC}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{8A693E9A-CBA1-420A-AF11-6AEF9ED49ED1}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{7BE1BF5F-1D74-434A-9066-C850A179D781}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{FF70206B-A375-4D88-A1DA-109BF2E963FE}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{8D1F9CF2-FF02-4A70-BA9D-6DDA478DC60F}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{EE40722F-AF01-490A-9863-CB0825D87E4B}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
